--- a/src/main/resources/com/example/java/examlaba.xlsx
+++ b/src/main/resources/com/example/java/examlaba.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\IdeaProjects\F\LabaExam2.0\src\main\resources\com\example\java\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\IdeaProjects\F\ExamLaba3\src\main\resources\com\example\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31EEA03-8286-4D69-AEBD-E210619FC2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBAE065A-8B81-4C59-86E9-16E45762F110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="2364" windowWidth="17280" windowHeight="9072" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="2364" windowWidth="17280" windowHeight="9072" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="name" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="subject" sheetId="9" r:id="rId5"/>
     <sheet name="format" sheetId="10" r:id="rId6"/>
     <sheet name="science" sheetId="11" r:id="rId7"/>
+    <sheet name="party" sheetId="12" r:id="rId8"/>
+    <sheet name="focus" sheetId="14" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="212">
   <si>
     <t>Андрей</t>
   </si>
@@ -600,6 +602,9 @@
     <t>материаловедение</t>
   </si>
   <si>
+    <t>чесленные методы</t>
+  </si>
+  <si>
     <t>математический анализ</t>
   </si>
   <si>
@@ -627,7 +632,43 @@
     <t>точные науки</t>
   </si>
   <si>
-    <t>численные методы</t>
+    <t>спортивный клуб</t>
+  </si>
+  <si>
+    <t>хор</t>
+  </si>
+  <si>
+    <t>оркестр</t>
+  </si>
+  <si>
+    <t>литературный клуб</t>
+  </si>
+  <si>
+    <t>экологический клуб</t>
+  </si>
+  <si>
+    <t>студенческий театр</t>
+  </si>
+  <si>
+    <t>научный</t>
+  </si>
+  <si>
+    <t>творческий</t>
+  </si>
+  <si>
+    <t>студия вокала</t>
+  </si>
+  <si>
+    <t>клуб дебатов</t>
+  </si>
+  <si>
+    <t>клуб кино</t>
+  </si>
+  <si>
+    <t>волонтерские объединения</t>
+  </si>
+  <si>
+    <t>строительные отряды</t>
   </si>
 </sst>
 </file>
@@ -1980,8 +2021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACAB6331-F8F1-4650-9360-42757B9465D3}">
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2028,22 +2069,22 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -2063,17 +2104,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2093,17 +2134,117 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB0E052F-1FF7-4C69-8141-73F35E11CAE6}">
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA06EF0A-610E-4013-9F0D-279A3C66833E}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
